--- a/data/pca/factorExposure/factorExposure_2017-02-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01326934050237725</v>
+        <v>0.01207996399111302</v>
       </c>
       <c r="C2">
-        <v>-0.01993302869835508</v>
+        <v>-0.04127890719331186</v>
       </c>
       <c r="D2">
-        <v>0.02319474575031651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03028662076427383</v>
+      </c>
+      <c r="E2">
+        <v>-0.04228233998028225</v>
+      </c>
+      <c r="F2">
+        <v>-0.007703854159959315</v>
+      </c>
+      <c r="G2">
+        <v>0.1104554288203542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02451381060148347</v>
+        <v>0.0386241915692084</v>
       </c>
       <c r="C3">
-        <v>0.0005857806830257751</v>
+        <v>-0.1016660814677244</v>
       </c>
       <c r="D3">
-        <v>0.09201778443630466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01799212260922467</v>
+      </c>
+      <c r="E3">
+        <v>-0.1023608171684211</v>
+      </c>
+      <c r="F3">
+        <v>-0.0225887980749934</v>
+      </c>
+      <c r="G3">
+        <v>0.1413495089238503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02937000515612074</v>
+        <v>0.05547552879693942</v>
       </c>
       <c r="C4">
-        <v>-0.01103899429899908</v>
+        <v>-0.06715387100832643</v>
       </c>
       <c r="D4">
-        <v>0.0807971648097037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0251165790196679</v>
+      </c>
+      <c r="E4">
+        <v>-0.04065349608312441</v>
+      </c>
+      <c r="F4">
+        <v>-0.0002326119494640007</v>
+      </c>
+      <c r="G4">
+        <v>0.1040401616190974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.005668451696799024</v>
+        <v>0.0345832870187284</v>
       </c>
       <c r="C6">
-        <v>-0.01361243408257994</v>
+        <v>-0.05142947733497456</v>
       </c>
       <c r="D6">
-        <v>0.06255817223307847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01761670945311192</v>
+      </c>
+      <c r="E6">
+        <v>-0.04334865356817979</v>
+      </c>
+      <c r="F6">
+        <v>-0.001224620893850907</v>
+      </c>
+      <c r="G6">
+        <v>0.08639786173046951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004824248601969285</v>
+        <v>0.02067135193152572</v>
       </c>
       <c r="C7">
-        <v>-0.01478409081853038</v>
+        <v>-0.03948578989057076</v>
       </c>
       <c r="D7">
-        <v>0.03621069171508495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01408508990459632</v>
+      </c>
+      <c r="E7">
+        <v>-0.006349262752477067</v>
+      </c>
+      <c r="F7">
+        <v>-0.005431317051413529</v>
+      </c>
+      <c r="G7">
+        <v>0.1244842222949281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004770458542224845</v>
+        <v>0.003655595592495529</v>
       </c>
       <c r="C8">
-        <v>-0.002759581739865502</v>
+        <v>-0.02406363030113734</v>
       </c>
       <c r="D8">
-        <v>-0.009914934462690171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004026032378157306</v>
+      </c>
+      <c r="E8">
+        <v>-0.03274769622941914</v>
+      </c>
+      <c r="F8">
+        <v>-0.002687285133059693</v>
+      </c>
+      <c r="G8">
+        <v>0.07243911918565334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.007678733006336187</v>
+        <v>0.03288819336683197</v>
       </c>
       <c r="C9">
-        <v>-0.01164646543633897</v>
+        <v>-0.04868073902309465</v>
       </c>
       <c r="D9">
-        <v>0.0496812342730969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01657938357672136</v>
+      </c>
+      <c r="E9">
+        <v>-0.0263120072604079</v>
+      </c>
+      <c r="F9">
+        <v>-0.0001014006089694273</v>
+      </c>
+      <c r="G9">
+        <v>0.1056962525699357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1457040402244074</v>
+        <v>0.0990159786992964</v>
       </c>
       <c r="C10">
-        <v>0.07145958077767836</v>
+        <v>0.1820174267459211</v>
       </c>
       <c r="D10">
-        <v>-0.1333147059418493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01561591066616558</v>
+      </c>
+      <c r="E10">
+        <v>-0.01879661771998328</v>
+      </c>
+      <c r="F10">
+        <v>-0.0243344158095433</v>
+      </c>
+      <c r="G10">
+        <v>0.05301791086342992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.003455362800352141</v>
+        <v>0.03471245345966623</v>
       </c>
       <c r="C11">
-        <v>0.0006217180967336987</v>
+        <v>-0.05206052409301506</v>
       </c>
       <c r="D11">
-        <v>0.0467202157858651</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002701377170144647</v>
+      </c>
+      <c r="E11">
+        <v>-0.02219213240692579</v>
+      </c>
+      <c r="F11">
+        <v>0.01451332906010037</v>
+      </c>
+      <c r="G11">
+        <v>0.09046323406514581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.007477541941405561</v>
+        <v>0.0373012317169353</v>
       </c>
       <c r="C12">
-        <v>-0.002885718854283002</v>
+        <v>-0.04715033467969153</v>
       </c>
       <c r="D12">
-        <v>0.04261330227367018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006636131700722516</v>
+      </c>
+      <c r="E12">
+        <v>-0.009806389843449807</v>
+      </c>
+      <c r="F12">
+        <v>-0.0008764797950065124</v>
+      </c>
+      <c r="G12">
+        <v>0.08250509926771298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009677607957772668</v>
+        <v>0.01363613757668306</v>
       </c>
       <c r="C13">
-        <v>-0.01919125062827079</v>
+        <v>-0.04153107542035048</v>
       </c>
       <c r="D13">
-        <v>0.02856410780999573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02719494914014319</v>
+      </c>
+      <c r="E13">
+        <v>-0.04188951543383655</v>
+      </c>
+      <c r="F13">
+        <v>-0.008364552626355251</v>
+      </c>
+      <c r="G13">
+        <v>0.1421005134300919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002695016607467228</v>
+        <v>0.01026218936050002</v>
       </c>
       <c r="C14">
-        <v>-0.008943292245546113</v>
+        <v>-0.02763467319692619</v>
       </c>
       <c r="D14">
-        <v>0.01624905262151457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01030783598856097</v>
+      </c>
+      <c r="E14">
+        <v>-0.008431873877655288</v>
+      </c>
+      <c r="F14">
+        <v>-0.01067338059764736</v>
+      </c>
+      <c r="G14">
+        <v>0.1119498216293205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00541335632760523</v>
+        <v>0.03367430213672707</v>
       </c>
       <c r="C16">
-        <v>0.00158992708863089</v>
+        <v>-0.04548421831309738</v>
       </c>
       <c r="D16">
-        <v>0.03562729614171614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.00225191506087611</v>
+      </c>
+      <c r="E16">
+        <v>-0.01816813680950325</v>
+      </c>
+      <c r="F16">
+        <v>-0.004048221964530748</v>
+      </c>
+      <c r="G16">
+        <v>0.09291663278866226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.008446986887002697</v>
+        <v>0.02088213545865914</v>
       </c>
       <c r="C19">
-        <v>-0.01061123540849967</v>
+        <v>-0.05111525286487012</v>
       </c>
       <c r="D19">
-        <v>0.04074461711646359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02024739046827129</v>
+      </c>
+      <c r="E19">
+        <v>-0.08867345637666577</v>
+      </c>
+      <c r="F19">
+        <v>-0.002941143638967484</v>
+      </c>
+      <c r="G19">
+        <v>0.1438578021074509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.001164672309845026</v>
+        <v>0.0153095870882079</v>
       </c>
       <c r="C20">
-        <v>-0.01231504795313856</v>
+        <v>-0.04074323878322294</v>
       </c>
       <c r="D20">
-        <v>0.02787392025511348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0147758819158692</v>
+      </c>
+      <c r="E20">
+        <v>-0.03956859888936753</v>
+      </c>
+      <c r="F20">
+        <v>-0.0214129108709493</v>
+      </c>
+      <c r="G20">
+        <v>0.1159870141489872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.003317143440943125</v>
+        <v>0.01037258124195859</v>
       </c>
       <c r="C21">
-        <v>-0.01570817735492036</v>
+        <v>-0.03816532735825401</v>
       </c>
       <c r="D21">
-        <v>0.004675741883607134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01972384036264139</v>
+      </c>
+      <c r="E21">
+        <v>-0.04945959819409006</v>
+      </c>
+      <c r="F21">
+        <v>-0.01326477887011307</v>
+      </c>
+      <c r="G21">
+        <v>0.1427111009583722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001046475196715931</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006494336575617383</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002106651712410819</v>
+      </c>
+      <c r="E22">
+        <v>-0.01653427074000616</v>
+      </c>
+      <c r="F22">
+        <v>0.007810627501748958</v>
+      </c>
+      <c r="G22">
+        <v>0.002806808311830344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001051597825240059</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006495374718858182</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002104236195736491</v>
+      </c>
+      <c r="E23">
+        <v>-0.01651268962333848</v>
+      </c>
+      <c r="F23">
+        <v>0.007801931205332904</v>
+      </c>
+      <c r="G23">
+        <v>0.002707836479026221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0007541625249490066</v>
+        <v>0.02891653008373378</v>
       </c>
       <c r="C24">
-        <v>-0.006111103107672093</v>
+        <v>-0.04885793576872813</v>
       </c>
       <c r="D24">
-        <v>0.03903341308637628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007373424631929604</v>
+      </c>
+      <c r="E24">
+        <v>-0.01653051582808631</v>
+      </c>
+      <c r="F24">
+        <v>0.005549586416015579</v>
+      </c>
+      <c r="G24">
+        <v>0.09266507683446863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01356457906277162</v>
+        <v>0.04209567118693192</v>
       </c>
       <c r="C25">
-        <v>-0.005639820345720798</v>
+        <v>-0.05662148162133106</v>
       </c>
       <c r="D25">
-        <v>0.05564849890371924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01140787832814636</v>
+      </c>
+      <c r="E25">
+        <v>-0.006079024638318734</v>
+      </c>
+      <c r="F25">
+        <v>0.003027856121628395</v>
+      </c>
+      <c r="G25">
+        <v>0.09785049970505189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.00454641962174962</v>
+        <v>0.01439681296948261</v>
       </c>
       <c r="C26">
-        <v>-0.02217334503437521</v>
+        <v>-0.01141064028580494</v>
       </c>
       <c r="D26">
-        <v>-0.002419995534937088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02421523251953028</v>
+      </c>
+      <c r="E26">
+        <v>-0.007934577379715682</v>
+      </c>
+      <c r="F26">
+        <v>-0.008616384393741405</v>
+      </c>
+      <c r="G26">
+        <v>0.08577418699959465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1954933107964508</v>
+        <v>0.1284044122671142</v>
       </c>
       <c r="C28">
-        <v>0.07955800712972835</v>
+        <v>0.2413560813477902</v>
       </c>
       <c r="D28">
-        <v>-0.1601394928971498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006839041436829921</v>
+      </c>
+      <c r="E28">
+        <v>-0.006254389773821844</v>
+      </c>
+      <c r="F28">
+        <v>-0.02048886679931957</v>
+      </c>
+      <c r="G28">
+        <v>0.04794332297224543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.004474353656476038</v>
+        <v>0.009671589303710693</v>
       </c>
       <c r="C29">
-        <v>-0.005341188736447212</v>
+        <v>-0.02327897150994301</v>
       </c>
       <c r="D29">
-        <v>0.01637313484220447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009460134331496247</v>
+      </c>
+      <c r="E29">
+        <v>-0.003221277945293097</v>
+      </c>
+      <c r="F29">
+        <v>-0.01485263148579842</v>
+      </c>
+      <c r="G29">
+        <v>0.1020174210018625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01222702910130795</v>
+        <v>0.03915607890560668</v>
       </c>
       <c r="C30">
-        <v>-0.02037943082725329</v>
+        <v>-0.06799384114449762</v>
       </c>
       <c r="D30">
-        <v>0.09153595211413099</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02971361702675175</v>
+      </c>
+      <c r="E30">
+        <v>-0.07083496028143452</v>
+      </c>
+      <c r="F30">
+        <v>0.02764805149838774</v>
+      </c>
+      <c r="G30">
+        <v>0.1349098506625842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02058266501588275</v>
+        <v>0.0536267864225495</v>
       </c>
       <c r="C31">
-        <v>0.00412529335186211</v>
+        <v>-0.03970446812471005</v>
       </c>
       <c r="D31">
-        <v>0.02232754854921035</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00391918327143709</v>
+      </c>
+      <c r="E31">
+        <v>0.003310819894206811</v>
+      </c>
+      <c r="F31">
+        <v>-0.03763801149664704</v>
+      </c>
+      <c r="G31">
+        <v>0.09707757008498438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006771309658077797</v>
+        <v>0.002069944801512286</v>
       </c>
       <c r="C32">
-        <v>0.01176458760547138</v>
+        <v>-0.02251340592750307</v>
       </c>
       <c r="D32">
-        <v>0.02061885360460614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002241704582204218</v>
+      </c>
+      <c r="E32">
+        <v>-0.04444132311479246</v>
+      </c>
+      <c r="F32">
+        <v>0.03144633785307184</v>
+      </c>
+      <c r="G32">
+        <v>0.08487255842393671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.00119068872608862</v>
+        <v>0.0274763599790188</v>
       </c>
       <c r="C33">
-        <v>-0.01185422780181697</v>
+        <v>-0.05066988336258263</v>
       </c>
       <c r="D33">
-        <v>0.03556624744616189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01665442576592407</v>
+      </c>
+      <c r="E33">
+        <v>-0.05075040600885794</v>
+      </c>
+      <c r="F33">
+        <v>0.006100726900405638</v>
+      </c>
+      <c r="G33">
+        <v>0.1634097728754944</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.0168324975052347</v>
+        <v>0.04067858785093081</v>
       </c>
       <c r="C34">
-        <v>0.01363535099681954</v>
+        <v>-0.05861994134678573</v>
       </c>
       <c r="D34">
-        <v>0.05541219053876057</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004218410264485818</v>
+      </c>
+      <c r="E34">
+        <v>-0.01331810477152569</v>
+      </c>
+      <c r="F34">
+        <v>0.01782665020272907</v>
+      </c>
+      <c r="G34">
+        <v>0.09360215258927816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.007172492136392402</v>
+        <v>0.01627556329554029</v>
       </c>
       <c r="C36">
-        <v>-0.008505264726960718</v>
+        <v>-0.01013226862037809</v>
       </c>
       <c r="D36">
-        <v>-0.001406656019168206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01288024277355238</v>
+      </c>
+      <c r="E36">
+        <v>-0.009931466858711746</v>
+      </c>
+      <c r="F36">
+        <v>-0.009955805315780669</v>
+      </c>
+      <c r="G36">
+        <v>0.0943014125707301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01876872857729159</v>
+        <v>0.03227200737214643</v>
       </c>
       <c r="C38">
-        <v>0.01680171404353502</v>
+        <v>-0.02916894645600606</v>
       </c>
       <c r="D38">
-        <v>0.03105591060907862</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.00760497219378072</v>
+      </c>
+      <c r="E38">
+        <v>-0.005196644288024909</v>
+      </c>
+      <c r="F38">
+        <v>-0.01941296395755992</v>
+      </c>
+      <c r="G38">
+        <v>0.08577271518116376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01368726728939924</v>
+        <v>0.036548987162374</v>
       </c>
       <c r="C39">
-        <v>-0.0153418446293718</v>
+        <v>-0.07891954297064178</v>
       </c>
       <c r="D39">
-        <v>0.09144960587602648</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01210686937544064</v>
+      </c>
+      <c r="E39">
+        <v>-0.03375842263198673</v>
+      </c>
+      <c r="F39">
+        <v>0.0166377117008527</v>
+      </c>
+      <c r="G39">
+        <v>0.09524656122880144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01263085073960022</v>
+        <v>0.01413064683835413</v>
       </c>
       <c r="C40">
-        <v>-0.005603388086695599</v>
+        <v>-0.03835853877398365</v>
       </c>
       <c r="D40">
-        <v>0.02091036995880357</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01505691377662536</v>
+      </c>
+      <c r="E40">
+        <v>-0.0341901051928386</v>
+      </c>
+      <c r="F40">
+        <v>-0.0142202635515995</v>
+      </c>
+      <c r="G40">
+        <v>0.1248667956396208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01189428142626999</v>
+        <v>0.02076378874410714</v>
       </c>
       <c r="C41">
-        <v>0.001612159958080074</v>
+        <v>-0.002944537615987963</v>
       </c>
       <c r="D41">
-        <v>-0.01028225647455784</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004870913317621826</v>
+      </c>
+      <c r="E41">
+        <v>-0.008922454079548742</v>
+      </c>
+      <c r="F41">
+        <v>-0.01635586686682193</v>
+      </c>
+      <c r="G41">
+        <v>0.0898719083782734</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.02213345946549997</v>
+        <v>0.005826036305566316</v>
       </c>
       <c r="C42">
-        <v>-0.08971516278276948</v>
+        <v>-0.02409546703103684</v>
       </c>
       <c r="D42">
-        <v>0.07367586416773672</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08675809287248752</v>
+      </c>
+      <c r="E42">
+        <v>0.002171149807994512</v>
+      </c>
+      <c r="F42">
+        <v>-0.0348793026086195</v>
+      </c>
+      <c r="G42">
+        <v>-0.0240461689727366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01268852380355421</v>
+        <v>0.03575218689498247</v>
       </c>
       <c r="C43">
-        <v>0.001049821134070826</v>
+        <v>-0.01885076857039937</v>
       </c>
       <c r="D43">
-        <v>-0.007081277981427173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006241271314808134</v>
+      </c>
+      <c r="E43">
+        <v>-0.02230352060555717</v>
+      </c>
+      <c r="F43">
+        <v>-0.01259193800110356</v>
+      </c>
+      <c r="G43">
+        <v>0.121394970517381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.00506704485071462</v>
+        <v>0.01335564189787445</v>
       </c>
       <c r="C44">
-        <v>-0.005432456435922344</v>
+        <v>-0.05854450310311477</v>
       </c>
       <c r="D44">
-        <v>0.04470503280897183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007287909176312122</v>
+      </c>
+      <c r="E44">
+        <v>-0.02882178549392426</v>
+      </c>
+      <c r="F44">
+        <v>-0.01580254729000016</v>
+      </c>
+      <c r="G44">
+        <v>0.1131204435614147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0004532161544997642</v>
+        <v>0.009110209778922003</v>
       </c>
       <c r="C46">
-        <v>-0.01051955123440724</v>
+        <v>-0.01501400687770385</v>
       </c>
       <c r="D46">
-        <v>-0.007785279864788709</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01256069762445034</v>
+      </c>
+      <c r="E46">
+        <v>0.003143264436803049</v>
+      </c>
+      <c r="F46">
+        <v>-0.01879991817965276</v>
+      </c>
+      <c r="G46">
+        <v>0.107826678369128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02783887291518295</v>
+        <v>0.07969685594426665</v>
       </c>
       <c r="C47">
-        <v>0.01473711243424482</v>
+        <v>-0.07010059930502194</v>
       </c>
       <c r="D47">
-        <v>0.06843481935995589</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0052222181805074</v>
+      </c>
+      <c r="E47">
+        <v>0.01471212288267068</v>
+      </c>
+      <c r="F47">
+        <v>-0.05334249575640515</v>
+      </c>
+      <c r="G47">
+        <v>0.08510778459062079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004173553787652397</v>
+        <v>0.0194487062591997</v>
       </c>
       <c r="C48">
-        <v>0.0004349821075005726</v>
+        <v>-0.01294677920104483</v>
       </c>
       <c r="D48">
-        <v>0.009594378490094868</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002436690877621095</v>
+      </c>
+      <c r="E48">
+        <v>-0.003949265145951777</v>
+      </c>
+      <c r="F48">
+        <v>-0.02173075089838412</v>
+      </c>
+      <c r="G48">
+        <v>0.1030497745998895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.04042910534290185</v>
+        <v>0.07487509599729093</v>
       </c>
       <c r="C50">
-        <v>0.01895096063335431</v>
+        <v>-0.07310983789469863</v>
       </c>
       <c r="D50">
-        <v>0.0576728084872094</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002043993263454657</v>
+      </c>
+      <c r="E50">
+        <v>0.01082743250663907</v>
+      </c>
+      <c r="F50">
+        <v>-0.05103389314360585</v>
+      </c>
+      <c r="G50">
+        <v>0.09451816635410125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0007687625202064986</v>
+        <v>0.01288495055892587</v>
       </c>
       <c r="C51">
-        <v>-0.006226686737561852</v>
+        <v>-0.03792263756949641</v>
       </c>
       <c r="D51">
-        <v>0.01992534886271302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01104232966461233</v>
+      </c>
+      <c r="E51">
+        <v>-0.03000913682791025</v>
+      </c>
+      <c r="F51">
+        <v>0.01243527614881027</v>
+      </c>
+      <c r="G51">
+        <v>0.1234282940769836</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.04279542255260751</v>
+        <v>0.08140700347732947</v>
       </c>
       <c r="C53">
-        <v>0.01936851827769159</v>
+        <v>-0.08402219979054133</v>
       </c>
       <c r="D53">
-        <v>0.1037891899237249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003512742053906417</v>
+      </c>
+      <c r="E53">
+        <v>0.03277440364478101</v>
+      </c>
+      <c r="F53">
+        <v>-0.05717583121683072</v>
+      </c>
+      <c r="G53">
+        <v>0.08715066090350868</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01527061977765385</v>
+        <v>0.03298593796511591</v>
       </c>
       <c r="C54">
-        <v>0.01001758650311065</v>
+        <v>-0.01874291499932632</v>
       </c>
       <c r="D54">
-        <v>-0.004239296082150889</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.000988743484528038</v>
+      </c>
+      <c r="E54">
+        <v>-0.01856932142490039</v>
+      </c>
+      <c r="F54">
+        <v>-0.009901620348253908</v>
+      </c>
+      <c r="G54">
+        <v>0.1119853406602871</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.02907304564192454</v>
+        <v>0.07391638902976592</v>
       </c>
       <c r="C55">
-        <v>0.01466083741242323</v>
+        <v>-0.06708567347588096</v>
       </c>
       <c r="D55">
-        <v>0.08634224337101354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005243240556181899</v>
+      </c>
+      <c r="E55">
+        <v>0.03203053847422955</v>
+      </c>
+      <c r="F55">
+        <v>-0.05512462213258713</v>
+      </c>
+      <c r="G55">
+        <v>0.06521459823095496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.07017256596699399</v>
+        <v>0.1364482515202489</v>
       </c>
       <c r="C56">
-        <v>0.03699151680567883</v>
+        <v>-0.1056841372321516</v>
       </c>
       <c r="D56">
-        <v>0.1499955551114805</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01308025052560956</v>
+      </c>
+      <c r="E56">
+        <v>0.04047908427386065</v>
+      </c>
+      <c r="F56">
+        <v>-0.06951914613438455</v>
+      </c>
+      <c r="G56">
+        <v>0.03895108666033181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01355182103612065</v>
+        <v>0.004303447011955542</v>
       </c>
       <c r="C57">
-        <v>-0.01820089715761989</v>
+        <v>-0.005819166411818704</v>
       </c>
       <c r="D57">
-        <v>0.02247118647992813</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02275559951282878</v>
+      </c>
+      <c r="E57">
+        <v>-0.0246046424896918</v>
+      </c>
+      <c r="F57">
+        <v>0.001910109168503634</v>
+      </c>
+      <c r="G57">
+        <v>0.02008483753292921</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.002595499907964136</v>
+        <v>0.04647164699277063</v>
       </c>
       <c r="C58">
-        <v>-0.0002656443430069214</v>
+        <v>-0.04386023972298319</v>
       </c>
       <c r="D58">
-        <v>0.1545247967058796</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02390277209071178</v>
+      </c>
+      <c r="E58">
+        <v>-0.8377649713759526</v>
+      </c>
+      <c r="F58">
+        <v>-0.440344832235522</v>
+      </c>
+      <c r="G58">
+        <v>-0.2453375712778616</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2245578034121216</v>
+        <v>0.1592428252750916</v>
       </c>
       <c r="C59">
-        <v>0.097984045503865</v>
+        <v>0.2062540443808921</v>
       </c>
       <c r="D59">
-        <v>-0.1377179065637019</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01135312594922767</v>
+      </c>
+      <c r="E59">
+        <v>-0.02484088559792814</v>
+      </c>
+      <c r="F59">
+        <v>-0.005262564444965518</v>
+      </c>
+      <c r="G59">
+        <v>0.03415737484721561</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2333008418120449</v>
+        <v>0.2876121724335894</v>
       </c>
       <c r="C60">
-        <v>0.08381689993809595</v>
+        <v>-0.1160159039090005</v>
       </c>
       <c r="D60">
-        <v>0.1962658429034094</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0137419253600746</v>
+      </c>
+      <c r="E60">
+        <v>-0.07599363284625225</v>
+      </c>
+      <c r="F60">
+        <v>0.3385416217955422</v>
+      </c>
+      <c r="G60">
+        <v>-0.1591994047503708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001828220464421666</v>
+        <v>0.03888197787003365</v>
       </c>
       <c r="C61">
-        <v>-0.004167786104713397</v>
+        <v>-0.06433842526601248</v>
       </c>
       <c r="D61">
-        <v>0.06887228977570982</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006084775730643429</v>
+      </c>
+      <c r="E61">
+        <v>-0.02934095721769107</v>
+      </c>
+      <c r="F61">
+        <v>0.008976980596902082</v>
+      </c>
+      <c r="G61">
+        <v>0.1028314811498982</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.002584309507272812</v>
+        <v>0.01466063473687814</v>
       </c>
       <c r="C63">
-        <v>-0.006882929459400429</v>
+        <v>-0.03032544219045488</v>
       </c>
       <c r="D63">
-        <v>0.02070793796755786</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008828718605541198</v>
+      </c>
+      <c r="E63">
+        <v>-0.004914321027892024</v>
+      </c>
+      <c r="F63">
+        <v>-0.0152767317572474</v>
+      </c>
+      <c r="G63">
+        <v>0.09435699576595152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02668607643682276</v>
+        <v>0.04916632747998013</v>
       </c>
       <c r="C64">
-        <v>0.006173196600694481</v>
+        <v>-0.04604305822785951</v>
       </c>
       <c r="D64">
-        <v>0.04945477835628895</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006294870941777679</v>
+      </c>
+      <c r="E64">
+        <v>-0.004054369557914081</v>
+      </c>
+      <c r="F64">
+        <v>0.003313439771502593</v>
+      </c>
+      <c r="G64">
+        <v>0.1016606833093447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.03860068243964233</v>
+        <v>0.07395027202993726</v>
       </c>
       <c r="C65">
-        <v>-0.000864838310108975</v>
+        <v>-0.0602548220590766</v>
       </c>
       <c r="D65">
-        <v>0.1110215449830518</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01720938110286374</v>
+      </c>
+      <c r="E65">
+        <v>-0.04842564707765495</v>
+      </c>
+      <c r="F65">
+        <v>0.01647411512037988</v>
+      </c>
+      <c r="G65">
+        <v>0.04362439900473372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01179170524906752</v>
+        <v>0.04818557803349836</v>
       </c>
       <c r="C66">
-        <v>-0.01411639919516182</v>
+        <v>-0.1060604088136228</v>
       </c>
       <c r="D66">
-        <v>0.1321786494631925</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0124575775300886</v>
+      </c>
+      <c r="E66">
+        <v>-0.05018568902035628</v>
+      </c>
+      <c r="F66">
+        <v>0.02427646438262665</v>
+      </c>
+      <c r="G66">
+        <v>0.10515720170135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04154508822636015</v>
+        <v>0.0556344056051392</v>
       </c>
       <c r="C67">
-        <v>0.02308098671118871</v>
+        <v>-0.03418514631983293</v>
       </c>
       <c r="D67">
-        <v>0.05211879757169683</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006147177225647308</v>
+      </c>
+      <c r="E67">
+        <v>0.005511968449370973</v>
+      </c>
+      <c r="F67">
+        <v>-0.01568556023533657</v>
+      </c>
+      <c r="G67">
+        <v>0.07260774904867699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2273113472964485</v>
+        <v>0.1586348578018646</v>
       </c>
       <c r="C68">
-        <v>0.07809476265746462</v>
+        <v>0.2714519966836658</v>
       </c>
       <c r="D68">
-        <v>-0.1981482124865926</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004865594443658762</v>
+      </c>
+      <c r="E68">
+        <v>-0.002553693872283796</v>
+      </c>
+      <c r="F68">
+        <v>-0.04662153423570618</v>
+      </c>
+      <c r="G68">
+        <v>0.02267072701109253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03458296484616175</v>
+        <v>0.0820054478291541</v>
       </c>
       <c r="C69">
-        <v>0.02182534414397318</v>
+        <v>-0.07406628037708851</v>
       </c>
       <c r="D69">
-        <v>0.07035976066158472</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008964173147016549</v>
+      </c>
+      <c r="E69">
+        <v>0.02702753340687117</v>
+      </c>
+      <c r="F69">
+        <v>-0.03288081734387663</v>
+      </c>
+      <c r="G69">
+        <v>0.09806999435459554</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1950586640094994</v>
+        <v>0.1438280822140567</v>
       </c>
       <c r="C71">
-        <v>0.07483395341889028</v>
+        <v>0.2293387025910203</v>
       </c>
       <c r="D71">
-        <v>-0.1331976252341313</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002851398606199716</v>
+      </c>
+      <c r="E71">
+        <v>-0.03146656297127049</v>
+      </c>
+      <c r="F71">
+        <v>-0.03094433965000538</v>
+      </c>
+      <c r="G71">
+        <v>0.06863697849071097</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0292796906262081</v>
+        <v>0.08720645769519034</v>
       </c>
       <c r="C72">
-        <v>0.02071836944504444</v>
+        <v>-0.06921552634407416</v>
       </c>
       <c r="D72">
-        <v>0.08971561022562216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008438291447132838</v>
+      </c>
+      <c r="E72">
+        <v>0.00709221806396585</v>
+      </c>
+      <c r="F72">
+        <v>0.03432611600117926</v>
+      </c>
+      <c r="G72">
+        <v>0.09442112788426911</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3103019128494835</v>
+        <v>0.3726328285040044</v>
       </c>
       <c r="C73">
-        <v>0.1092965520059292</v>
+        <v>-0.1210370527575694</v>
       </c>
       <c r="D73">
-        <v>0.2898843013482722</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02385027553346009</v>
+      </c>
+      <c r="E73">
+        <v>-0.1892673221215294</v>
+      </c>
+      <c r="F73">
+        <v>0.5600109943531203</v>
+      </c>
+      <c r="G73">
+        <v>-0.2935085964034055</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.05846208853484563</v>
+        <v>0.1043987473336343</v>
       </c>
       <c r="C74">
-        <v>0.03232327995393494</v>
+        <v>-0.1093554533646372</v>
       </c>
       <c r="D74">
-        <v>0.1570361429397661</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009555107772242466</v>
+      </c>
+      <c r="E74">
+        <v>0.01729022661807494</v>
+      </c>
+      <c r="F74">
+        <v>-0.0636285445510366</v>
+      </c>
+      <c r="G74">
+        <v>0.07023240701698046</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.150699960404874</v>
+        <v>0.2478007007805547</v>
       </c>
       <c r="C75">
-        <v>0.07826615165560709</v>
+        <v>-0.1517045189035489</v>
       </c>
       <c r="D75">
-        <v>0.2744173653380126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03150695775652906</v>
+      </c>
+      <c r="E75">
+        <v>0.09277224701385331</v>
+      </c>
+      <c r="F75">
+        <v>-0.1525557587055743</v>
+      </c>
+      <c r="G75">
+        <v>-0.02581257611603206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0624840844848784</v>
+        <v>0.1161762516638882</v>
       </c>
       <c r="C76">
-        <v>0.03949913199684577</v>
+        <v>-0.1105864543907249</v>
       </c>
       <c r="D76">
-        <v>0.1756486673242414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01755158413366698</v>
+      </c>
+      <c r="E76">
+        <v>0.04006342367337321</v>
+      </c>
+      <c r="F76">
+        <v>-0.0888721348077095</v>
+      </c>
+      <c r="G76">
+        <v>0.05210919124710949</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.02389517534238069</v>
+        <v>0.07112605427282991</v>
       </c>
       <c r="C77">
-        <v>0.001090704567817888</v>
+        <v>-0.05714363130629527</v>
       </c>
       <c r="D77">
-        <v>0.07684920245271212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.009908407177508974</v>
+      </c>
+      <c r="E77">
+        <v>-0.05029392321420654</v>
+      </c>
+      <c r="F77">
+        <v>-0.004957729891509867</v>
+      </c>
+      <c r="G77">
+        <v>0.07300435851350236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.01709737160632097</v>
+        <v>0.04152288009079028</v>
       </c>
       <c r="C78">
-        <v>0.003593553372303118</v>
+        <v>-0.05199370930795592</v>
       </c>
       <c r="D78">
-        <v>0.06442771791549377</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006615550335924743</v>
+      </c>
+      <c r="E78">
+        <v>-0.03722871920830722</v>
+      </c>
+      <c r="F78">
+        <v>0.03001659180797979</v>
+      </c>
+      <c r="G78">
+        <v>0.1030382197873382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001023207444061848</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-1.042258533395869e-06</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0003658050956017206</v>
+      </c>
+      <c r="E79">
+        <v>-0.004087490784148468</v>
+      </c>
+      <c r="F79">
+        <v>0.0008060364788376864</v>
+      </c>
+      <c r="G79">
+        <v>0.00277372287046356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03553465981036041</v>
+        <v>0.04329425865634756</v>
       </c>
       <c r="C80">
-        <v>0.003340470439617271</v>
+        <v>-0.05004793661978791</v>
       </c>
       <c r="D80">
-        <v>0.07967927318390101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01327517882911898</v>
+      </c>
+      <c r="E80">
+        <v>-0.02716061585691275</v>
+      </c>
+      <c r="F80">
+        <v>0.002109343457841893</v>
+      </c>
+      <c r="G80">
+        <v>0.05023555793783821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.07278718200200865</v>
+        <v>0.138016951639467</v>
       </c>
       <c r="C81">
-        <v>0.03789854359721499</v>
+        <v>-0.09712107758037439</v>
       </c>
       <c r="D81">
-        <v>0.1511834754101629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01539037600296666</v>
+      </c>
+      <c r="E81">
+        <v>0.0573454020712004</v>
+      </c>
+      <c r="F81">
+        <v>-0.1193947632502993</v>
+      </c>
+      <c r="G81">
+        <v>0.02029224301583234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.006317456926315248</v>
+        <v>0.1471262846351296</v>
       </c>
       <c r="C82">
-        <v>0.002693742962763436</v>
+        <v>-0.0842132425461489</v>
       </c>
       <c r="D82">
-        <v>0.007912305638755208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01211941069006032</v>
+      </c>
+      <c r="E82">
+        <v>0.1280479287235133</v>
+      </c>
+      <c r="F82">
+        <v>-0.0476493741691184</v>
+      </c>
+      <c r="G82">
+        <v>0.06547817657714942</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01305885603784429</v>
+        <v>0.03393807959783952</v>
       </c>
       <c r="C83">
-        <v>0.001437425718930944</v>
+        <v>-0.03162013793306041</v>
       </c>
       <c r="D83">
-        <v>0.01936711129413755</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006551841399869944</v>
+      </c>
+      <c r="E83">
+        <v>-0.03381964891252776</v>
+      </c>
+      <c r="F83">
+        <v>0.02618145810041277</v>
+      </c>
+      <c r="G83">
+        <v>0.06156686909801818</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1449100362607269</v>
+        <v>0.2077105893898907</v>
       </c>
       <c r="C85">
-        <v>0.06357082526835356</v>
+        <v>-0.1474417048854476</v>
       </c>
       <c r="D85">
-        <v>0.2570077317393726</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01723110250125286</v>
+      </c>
+      <c r="E85">
+        <v>0.1159915479220976</v>
+      </c>
+      <c r="F85">
+        <v>-0.08917236676363936</v>
+      </c>
+      <c r="G85">
+        <v>-0.0663150039256017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008915883321041672</v>
+        <v>0.01331028120641938</v>
       </c>
       <c r="C86">
-        <v>-0.001778699783246718</v>
+        <v>-0.02734093988304284</v>
       </c>
       <c r="D86">
-        <v>0.03457364210433652</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01155503112141069</v>
+      </c>
+      <c r="E86">
+        <v>-0.05300631247659256</v>
+      </c>
+      <c r="F86">
+        <v>0.005678535359824622</v>
+      </c>
+      <c r="G86">
+        <v>0.1817535104708017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.009939786538858939</v>
+        <v>0.02142893623191971</v>
       </c>
       <c r="C87">
-        <v>-0.01327461692973</v>
+        <v>-0.01776377593735402</v>
       </c>
       <c r="D87">
-        <v>0.02740065310855618</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01251279167787432</v>
+      </c>
+      <c r="E87">
+        <v>-0.09894121563779205</v>
+      </c>
+      <c r="F87">
+        <v>-0.01570429921771561</v>
+      </c>
+      <c r="G87">
+        <v>0.1249164132578183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04213747942624212</v>
+        <v>0.09218654899302324</v>
       </c>
       <c r="C88">
-        <v>-0.006763957004451457</v>
+        <v>-0.07123979980868733</v>
       </c>
       <c r="D88">
-        <v>0.03889682300390143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02211351749704699</v>
+      </c>
+      <c r="E88">
+        <v>0.006849419832244159</v>
+      </c>
+      <c r="F88">
+        <v>-0.02064317603078806</v>
+      </c>
+      <c r="G88">
+        <v>0.09973605856298422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3373562972223517</v>
+        <v>0.2336304467610838</v>
       </c>
       <c r="C89">
-        <v>0.1253659662973214</v>
+        <v>0.3643450929693221</v>
       </c>
       <c r="D89">
-        <v>-0.2528359129947212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-1.542601241235128e-05</v>
+      </c>
+      <c r="E89">
+        <v>0.02452356662476668</v>
+      </c>
+      <c r="F89">
+        <v>-0.0193838442346443</v>
+      </c>
+      <c r="G89">
+        <v>0.07638333008523139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2846700214475464</v>
+        <v>0.2118166223993327</v>
       </c>
       <c r="C90">
-        <v>0.1089886709495955</v>
+        <v>0.3157112717045015</v>
       </c>
       <c r="D90">
-        <v>-0.2172286055475146</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004762881434418277</v>
+      </c>
+      <c r="E90">
+        <v>0.003320025790725802</v>
+      </c>
+      <c r="F90">
+        <v>-0.04871584433782649</v>
+      </c>
+      <c r="G90">
+        <v>0.04847379595287103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1129321111693428</v>
+        <v>0.184535265521299</v>
       </c>
       <c r="C91">
-        <v>0.06171358870414409</v>
+        <v>-0.1388149238875001</v>
       </c>
       <c r="D91">
-        <v>0.1919640803119543</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02264929276896799</v>
+      </c>
+      <c r="E91">
+        <v>0.08761082343787081</v>
+      </c>
+      <c r="F91">
+        <v>-0.1222340245187159</v>
+      </c>
+      <c r="G91">
+        <v>0.02380233263228908</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2566759214410162</v>
+        <v>0.1985284610728917</v>
       </c>
       <c r="C92">
-        <v>0.1338609873515811</v>
+        <v>0.2575996490292736</v>
       </c>
       <c r="D92">
-        <v>-0.1331247394308119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03874384085354296</v>
+      </c>
+      <c r="E92">
+        <v>-0.02220710506019489</v>
+      </c>
+      <c r="F92">
+        <v>-0.06095897971916604</v>
+      </c>
+      <c r="G92">
+        <v>0.09473314670044673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3116235202800298</v>
+        <v>0.2351624034746933</v>
       </c>
       <c r="C93">
-        <v>0.1269921468696542</v>
+        <v>0.3129130660188294</v>
       </c>
       <c r="D93">
-        <v>-0.1796542144820044</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01144155877789838</v>
+      </c>
+      <c r="E93">
+        <v>-0.003486352526975052</v>
+      </c>
+      <c r="F93">
+        <v>-0.03957339511092339</v>
+      </c>
+      <c r="G93">
+        <v>0.05891092202615155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1586972963049989</v>
+        <v>0.3192752813319087</v>
       </c>
       <c r="C94">
-        <v>0.05987381210943511</v>
+        <v>-0.1885178065935806</v>
       </c>
       <c r="D94">
-        <v>0.2794086518090415</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02127019063759624</v>
+      </c>
+      <c r="E94">
+        <v>0.3062632951880204</v>
+      </c>
+      <c r="F94">
+        <v>-0.4274789395085631</v>
+      </c>
+      <c r="G94">
+        <v>-0.4004144878750301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.02276351289352198</v>
+        <v>0.09387616267535367</v>
       </c>
       <c r="C95">
-        <v>0.01835494943598319</v>
+        <v>-0.08343755137635794</v>
       </c>
       <c r="D95">
-        <v>0.1289419576658692</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009180044006285751</v>
+      </c>
+      <c r="E95">
+        <v>-0.1044017230741311</v>
+      </c>
+      <c r="F95">
+        <v>0.1566027973056454</v>
+      </c>
+      <c r="G95">
+        <v>0.03336605343994669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1518922966055498</v>
+        <v>0.1908646229853152</v>
       </c>
       <c r="C98">
-        <v>0.07832041949620853</v>
+        <v>-0.04806751634077174</v>
       </c>
       <c r="D98">
-        <v>0.1146326463048208</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01132375707340579</v>
+      </c>
+      <c r="E98">
+        <v>-0.1194230903519809</v>
+      </c>
+      <c r="F98">
+        <v>0.2225043901536611</v>
+      </c>
+      <c r="G98">
+        <v>-0.02125805455762858</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.004101391690320709</v>
+        <v>0.00951173826107553</v>
       </c>
       <c r="C101">
-        <v>-0.005341194104127105</v>
+        <v>-0.02315557770036031</v>
       </c>
       <c r="D101">
-        <v>0.01663850838425848</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009286056573221586</v>
+      </c>
+      <c r="E101">
+        <v>-0.002849637522139815</v>
+      </c>
+      <c r="F101">
+        <v>-0.01575061213148852</v>
+      </c>
+      <c r="G101">
+        <v>0.1015776593115715</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.08049712384260622</v>
+        <v>0.1172196887574212</v>
       </c>
       <c r="C102">
-        <v>0.02761045200306772</v>
+        <v>-0.08223930608179919</v>
       </c>
       <c r="D102">
-        <v>0.1302370624997841</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0005663807030325101</v>
+      </c>
+      <c r="E102">
+        <v>0.04125756871093256</v>
+      </c>
+      <c r="F102">
+        <v>-0.03293857862505986</v>
+      </c>
+      <c r="G102">
+        <v>0.01706315347755306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.3766568926492285</v>
+        <v>0.02143634001795508</v>
       </c>
       <c r="C104">
-        <v>-0.9167577463696005</v>
+        <v>0.02989017376008628</v>
       </c>
       <c r="D104">
-        <v>-0.01276778434871267</v>
+        <v>-0.9875964237957459</v>
+      </c>
+      <c r="E104">
+        <v>0.06078916966860304</v>
+      </c>
+      <c r="F104">
+        <v>-0.0274388634779375</v>
+      </c>
+      <c r="G104">
+        <v>-0.04148049938823543</v>
       </c>
     </row>
   </sheetData>
